--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/윗셀과같은값입력(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/윗셀과같은값입력(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section01\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6418805F-8DCC-40D6-9A5D-CC9BCFCD1934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE2218-B01D-F74A-B1F2-69AC8769297A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="7520" xr2:uid="{748922A9-8513-4FA8-8AD0-D9513C97AED7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{748922A9-8513-4FA8-8AD0-D9513C97AED7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>상품정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,13 +139,14 @@
   </si>
   <si>
     <t>페디그리 덴타본 35g (9*1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,9 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,6 +253,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -569,200 +570,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC0134-216D-4013-A8D0-32EC66B6CEC0}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.25" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="21" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickTop="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
